--- a/000 TABLAS GENERALES/UnidadMedida.xlsx
+++ b/000 TABLAS GENERALES/UnidadMedida.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{106C7A55-BD07-458A-9735-CFF3AF9BBCEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C7005A-E6C6-45EB-B354-0ECD5432B716}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4056" yWindow="3132" windowWidth="15336" windowHeight="8736" xr2:uid="{3767A57E-79CC-47CE-93B6-1CB5531CD4E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3767A57E-79CC-47CE-93B6-1CB5531CD4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -588,10 +588,10 @@
     <t>No Aplica</t>
   </si>
   <si>
-    <t>Tonelada</t>
-  </si>
-  <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>Toneladas</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9076BD3C-2350-42C7-BCB4-34951020C443}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2310,17 +2312,17 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" t="s">
         <v>184</v>
-      </c>
-      <c r="C67" t="s">
-        <v>185</v>
       </c>
       <c r="D67" t="s">
         <v>120</v>
       </c>
       <c r="E67" s="2" t="str">
         <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A67&amp;","&amp;"'"&amp;B67&amp;"','"&amp;C67&amp;"','"&amp;D67&amp;"');"</f>
-        <v>INSERT INTO  VALUES (66,'Tonelada','t','masa');</v>
+        <v>INSERT INTO  VALUES (66,'Toneladas','t','masa');</v>
       </c>
     </row>
   </sheetData>

--- a/000 TABLAS GENERALES/UnidadMedida.xlsx
+++ b/000 TABLAS GENERALES/UnidadMedida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C7005A-E6C6-45EB-B354-0ECD5432B716}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE3CA9E-88F9-40F1-8ED6-00976F76F644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3767A57E-79CC-47CE-93B6-1CB5531CD4E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="135">
   <si>
     <t>id</t>
   </si>
@@ -51,453 +51,36 @@
     <t>unidad_medida</t>
   </si>
   <si>
-    <t>Metro por segundo al cuadrado</t>
-  </si>
-  <si>
-    <t>m/s2</t>
-  </si>
-  <si>
-    <t>Aceleración</t>
-  </si>
-  <si>
-    <t>Metro por segundo cuadrado</t>
-  </si>
-  <si>
-    <t>Katal</t>
-  </si>
-  <si>
-    <t>kat</t>
-  </si>
-  <si>
-    <t>Actividad catalítica</t>
-  </si>
-  <si>
-    <t>Becquerel</t>
-  </si>
-  <si>
-    <t>Bq</t>
-  </si>
-  <si>
-    <t>Actividad radiactiva</t>
-  </si>
-  <si>
-    <t>Radián</t>
-  </si>
-  <si>
-    <t>rad</t>
-  </si>
-  <si>
-    <t>Ángulo plano</t>
-  </si>
-  <si>
-    <t>Estereorradián</t>
-  </si>
-  <si>
-    <t>sr</t>
-  </si>
-  <si>
-    <t>Ángulo sólido</t>
-  </si>
-  <si>
-    <t>Metro cuadrado</t>
-  </si>
-  <si>
     <t>m²</t>
   </si>
   <si>
-    <t>Área</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>Area, superficie</t>
-  </si>
-  <si>
-    <t>mol</t>
-  </si>
-  <si>
-    <t>cantidad de sustancia</t>
-  </si>
-  <si>
-    <t>Faradio, farad</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Capacitancia eléctrica</t>
-  </si>
-  <si>
-    <t>Culombio, coulomb</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Carga eléctrica</t>
-  </si>
-  <si>
-    <t>Mol por metro cúbico</t>
-  </si>
-  <si>
-    <t>mol/m³</t>
-  </si>
-  <si>
-    <t>Concentración</t>
-  </si>
-  <si>
-    <t>Mol por metro cúbico.</t>
-  </si>
-  <si>
-    <t>mol/m3</t>
-  </si>
-  <si>
-    <t>Concentración de cantidad de sustancia, concentración</t>
-  </si>
-  <si>
     <t>Kilogramo por metro cúbico</t>
   </si>
   <si>
-    <t>kg/m3</t>
-  </si>
-  <si>
-    <t>Concentración másica</t>
-  </si>
-  <si>
-    <t>Siemens</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Conductancia eléctrica</t>
-  </si>
-  <si>
-    <t>Vatio por metro kelvin</t>
-  </si>
-  <si>
-    <t>W/m·K</t>
-  </si>
-  <si>
-    <t>Conductividad térmica</t>
-  </si>
-  <si>
-    <t>amperio</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>corriente eléctrica</t>
-  </si>
-  <si>
     <t>kg/m³</t>
   </si>
   <si>
     <t>Densidad</t>
   </si>
   <si>
-    <t>Amperio por metro cuadrado</t>
-  </si>
-  <si>
-    <t>A/m2</t>
-  </si>
-  <si>
-    <t>Densidad de corriente</t>
-  </si>
-  <si>
-    <t>Julio por metro cúbico</t>
-  </si>
-  <si>
-    <t>J/m³</t>
-  </si>
-  <si>
-    <t>Densidad de energía</t>
-  </si>
-  <si>
-    <t>Kilogramo por metro cuadrado</t>
-  </si>
-  <si>
-    <t>kg/m2</t>
-  </si>
-  <si>
-    <t>Densidad superficial</t>
-  </si>
-  <si>
-    <t>Densidad, masa en volumen</t>
-  </si>
-  <si>
-    <t>Gray</t>
-  </si>
-  <si>
-    <t>Gy</t>
-  </si>
-  <si>
-    <t>Dosis absorbida de radiación ionizante</t>
-  </si>
-  <si>
-    <t>Julio por kilogramo</t>
-  </si>
-  <si>
-    <t>J/kg</t>
-  </si>
-  <si>
-    <t>Energía específica</t>
-  </si>
-  <si>
-    <t>Julio por mol</t>
-  </si>
-  <si>
-    <t>J/mol</t>
-  </si>
-  <si>
-    <t>Energía molar</t>
-  </si>
-  <si>
-    <t>Sievert</t>
-  </si>
-  <si>
-    <t>Sv</t>
-  </si>
-  <si>
-    <t>Equivalencia de dosis de radiación ionizante</t>
-  </si>
-  <si>
-    <t>Culombio por kilogramo</t>
-  </si>
-  <si>
-    <t>C/kg</t>
-  </si>
-  <si>
-    <t>Exposición (rayos X y gamma)</t>
-  </si>
-  <si>
-    <t>Lumen</t>
-  </si>
-  <si>
-    <t>lm</t>
-  </si>
-  <si>
-    <t>Flujo luminoso</t>
-  </si>
-  <si>
-    <t>Weber</t>
-  </si>
-  <si>
-    <t>Wb</t>
-  </si>
-  <si>
-    <t>Flujo magnético</t>
-  </si>
-  <si>
-    <t>Metro cúbico por segundo</t>
-  </si>
-  <si>
     <t>m³/s</t>
   </si>
   <si>
-    <t>Flujo volumétrico, caudal</t>
-  </si>
-  <si>
-    <t>Newton</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Fuerza</t>
-  </si>
-  <si>
-    <t>Tesla</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Inducción magnética</t>
-  </si>
-  <si>
-    <t>Henrio, henry</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Inductancia</t>
-  </si>
-  <si>
-    <t>Voltio por metro</t>
-  </si>
-  <si>
-    <t>V/m</t>
-  </si>
-  <si>
-    <t>Intensidad de campo eléctrico</t>
-  </si>
-  <si>
-    <t>Amperio por metro</t>
-  </si>
-  <si>
-    <t>A/m</t>
-  </si>
-  <si>
-    <t>Intensidad de campo magnético</t>
-  </si>
-  <si>
-    <t>candela</t>
-  </si>
-  <si>
-    <t>cd</t>
-  </si>
-  <si>
-    <t>intensidad luminosa</t>
-  </si>
-  <si>
-    <t>Vatio por metro cuadrado</t>
-  </si>
-  <si>
-    <t>W/m²</t>
-  </si>
-  <si>
-    <t>Irradiancia, densidad de flujo de calor</t>
-  </si>
-  <si>
-    <t>metro</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>longitud</t>
-  </si>
-  <si>
-    <t>Candela por metro cuadrado.</t>
-  </si>
-  <si>
-    <t>cd/m2</t>
-  </si>
-  <si>
-    <t>Luminancia</t>
-  </si>
-  <si>
-    <t>Lux</t>
-  </si>
-  <si>
-    <t>lx</t>
-  </si>
-  <si>
-    <t>Luminosidad</t>
-  </si>
-  <si>
-    <t>kilogramo</t>
-  </si>
-  <si>
     <t>kg</t>
   </si>
   <si>
-    <t>masa</t>
-  </si>
-  <si>
-    <t>Newton metro</t>
-  </si>
-  <si>
-    <t>N·m</t>
-  </si>
-  <si>
-    <t>Momento de fuerza</t>
-  </si>
-  <si>
-    <t>Metro a la potencia menos uno</t>
-  </si>
-  <si>
-    <t>m-1</t>
-  </si>
-  <si>
-    <t>Número de ondas</t>
-  </si>
-  <si>
-    <t>Vatio, watt</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
     <t>Potencia</t>
   </si>
   <si>
-    <t>Voltio, volt</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Potencial eléctrico, fuerza electromotriz</t>
-  </si>
-  <si>
-    <t>Pascal</t>
-  </si>
-  <si>
-    <t>Pa</t>
-  </si>
-  <si>
-    <t>Presión</t>
-  </si>
-  <si>
-    <t>Ohmio, ohm</t>
-  </si>
-  <si>
-    <t>Ω</t>
-  </si>
-  <si>
-    <t>Resistencia eléctrica</t>
-  </si>
-  <si>
-    <t>Gray por segundo</t>
-  </si>
-  <si>
-    <t>Gy/s</t>
-  </si>
-  <si>
-    <t>Tasa de dosis absorbida</t>
-  </si>
-  <si>
-    <t>kelvin</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>temperatura termodinámica</t>
-  </si>
-  <si>
-    <t>Julio por metro cuadrado</t>
-  </si>
-  <si>
-    <t>J/m²</t>
-  </si>
-  <si>
-    <t>Tensión superficial</t>
-  </si>
-  <si>
-    <t>segundo</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
-    <t>tiempo</t>
-  </si>
-  <si>
-    <t>Julio, joule</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>Trabajo</t>
-  </si>
-  <si>
     <t>Metro por segundo</t>
   </si>
   <si>
@@ -507,33 +90,6 @@
     <t>Velocidad</t>
   </si>
   <si>
-    <t>Radián por segundo</t>
-  </si>
-  <si>
-    <t>rad/s</t>
-  </si>
-  <si>
-    <t>Velocidad angular</t>
-  </si>
-  <si>
-    <t>Metro cuadrado por segundo</t>
-  </si>
-  <si>
-    <t>m²/s</t>
-  </si>
-  <si>
-    <t>Viscosidad cinemática, coeficiente de difusión</t>
-  </si>
-  <si>
-    <t>Pascal segundo</t>
-  </si>
-  <si>
-    <t>Pa·s</t>
-  </si>
-  <si>
-    <t>Viscosidad dinámica</t>
-  </si>
-  <si>
     <t>Metro cúbico</t>
   </si>
   <si>
@@ -543,55 +99,346 @@
     <t>Volumen</t>
   </si>
   <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>Metro cúbico por kilogramo</t>
-  </si>
-  <si>
-    <t>m³/kg</t>
-  </si>
-  <si>
-    <t>Volumen específico</t>
-  </si>
-  <si>
-    <t>m3/kg</t>
-  </si>
-  <si>
-    <t>Metro cúbico por mol</t>
-  </si>
-  <si>
-    <t>m³/mol</t>
-  </si>
-  <si>
-    <t>Volumen molar</t>
-  </si>
-  <si>
-    <t>Número</t>
-  </si>
-  <si>
-    <t>unidad</t>
-  </si>
-  <si>
-    <t>Genérico</t>
-  </si>
-  <si>
-    <t>Porcentaje</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>No Aplica</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
-    <t>Toneladas</t>
+    <t>Caudal</t>
+  </si>
+  <si>
+    <t>Economía</t>
+  </si>
+  <si>
+    <t>Energía</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>Moneda</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>Superficie</t>
+  </si>
+  <si>
+    <t>Temperatura</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Litros por hora</t>
+  </si>
+  <si>
+    <t>Litros por segundo</t>
+  </si>
+  <si>
+    <t>Metros cúbicos por hora</t>
+  </si>
+  <si>
+    <t>Metros cúbicos por segundo</t>
+  </si>
+  <si>
+    <t>Gramo por centímetro cúbico</t>
+  </si>
+  <si>
+    <t>Gramo por metro cúbico</t>
+  </si>
+  <si>
+    <t>Habitantes por km2</t>
+  </si>
+  <si>
+    <t>Miligramo por metro cúbico</t>
+  </si>
+  <si>
+    <t>Peso por kilogramo</t>
+  </si>
+  <si>
+    <t>Peso por tonelada</t>
+  </si>
+  <si>
+    <t>por persona</t>
+  </si>
+  <si>
+    <t>USD por tonelada</t>
+  </si>
+  <si>
+    <t>Kilo Caloria</t>
+  </si>
+  <si>
+    <t>Kilo watt - hr</t>
+  </si>
+  <si>
+    <t>Unidad térmica inglesa</t>
+  </si>
+  <si>
+    <t>Centímetro</t>
+  </si>
+  <si>
+    <t>Decímetro</t>
+  </si>
+  <si>
+    <t>Kilómetro</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Milímetro</t>
+  </si>
+  <si>
+    <t>Dólar USA</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Libra británica</t>
+  </si>
+  <si>
+    <t>Peso chileno</t>
+  </si>
+  <si>
+    <t>Yen japonés</t>
+  </si>
+  <si>
+    <t>Gramo</t>
+  </si>
+  <si>
+    <t>Kilogramo</t>
+  </si>
+  <si>
+    <t>Miligramo</t>
+  </si>
+  <si>
+    <t>Tonelada</t>
+  </si>
+  <si>
+    <t>Horse Power</t>
+  </si>
+  <si>
+    <t>Kilovatio</t>
+  </si>
+  <si>
+    <t>Vatio</t>
+  </si>
+  <si>
+    <t>centímetro cuadrado</t>
+  </si>
+  <si>
+    <t>hectárea</t>
+  </si>
+  <si>
+    <t>kilómetro cuadrado</t>
+  </si>
+  <si>
+    <t>metro cuadrado</t>
+  </si>
+  <si>
+    <t>milímetro cuadrado</t>
+  </si>
+  <si>
+    <t>Celsius</t>
+  </si>
+  <si>
+    <t>Kelvin</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Bienio</t>
+  </si>
+  <si>
+    <t>Década</t>
+  </si>
+  <si>
+    <t>Día</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Lustro</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Minuto</t>
+  </si>
+  <si>
+    <t>Quincena</t>
+  </si>
+  <si>
+    <t>Segundo</t>
+  </si>
+  <si>
+    <t>Semana</t>
+  </si>
+  <si>
+    <t>Semestre</t>
+  </si>
+  <si>
+    <t>Trienio</t>
+  </si>
+  <si>
+    <t>Trimestre</t>
+  </si>
+  <si>
+    <t>Kilometro por hora</t>
+  </si>
+  <si>
+    <t>Kilometro por segundo</t>
+  </si>
+  <si>
+    <t>Centímetro cúbico</t>
+  </si>
+  <si>
+    <t>Litro</t>
+  </si>
+  <si>
+    <t>Mililitro</t>
+  </si>
+  <si>
+    <t>candidatos</t>
+  </si>
+  <si>
+    <t>empresas</t>
+  </si>
+  <si>
+    <t>habitantes</t>
+  </si>
+  <si>
+    <t>unidades</t>
+  </si>
+  <si>
+    <t>votos</t>
+  </si>
+  <si>
+    <t>l/h</t>
+  </si>
+  <si>
+    <t>l/s</t>
+  </si>
+  <si>
+    <t>m³/h</t>
+  </si>
+  <si>
+    <t>g/cm³</t>
+  </si>
+  <si>
+    <t>g/m³</t>
+  </si>
+  <si>
+    <t>habitantes/km2</t>
+  </si>
+  <si>
+    <t>mg/m³</t>
+  </si>
+  <si>
+    <t>CLP/kg</t>
+  </si>
+  <si>
+    <t>CLP/t</t>
+  </si>
+  <si>
+    <t>per capita</t>
+  </si>
+  <si>
+    <t>USD/t</t>
+  </si>
+  <si>
+    <t>kcal</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>BTU</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>dm</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>cm²</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>km²</t>
+  </si>
+  <si>
+    <t>mm²</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>°K</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>km/s</t>
+  </si>
+  <si>
+    <t>cm³</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>ml</t>
   </si>
 </sst>
 </file>
@@ -1043,16 +890,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9076BD3C-2350-42C7-BCB4-34951020C443}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1078,17 +925,17 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:E65" si="0">+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A2&amp;","&amp;"'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"');"</f>
-        <v>INSERT INTO  VALUES (1,'Metro por segundo al cuadrado','m/s2','Aceleración');</v>
+        <v>INSERT INTO  VALUES (1,'Litros por hora','l/h','Caudal');</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1097,17 +944,17 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (2,'Metro por segundo cuadrado','m/s2','Aceleración');</v>
+        <v>INSERT INTO  VALUES (2,'Litros por segundo','l/s','Caudal');</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1116,17 +963,17 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (3,'Katal','kat','Actividad catalítica');</v>
+        <v>INSERT INTO  VALUES (3,'Metros cúbicos por hora','m³/h','Caudal');</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1135,17 +982,17 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (4,'Becquerel','Bq','Actividad radiactiva');</v>
+        <v>INSERT INTO  VALUES (4,'Metros cúbicos por segundo','m³/s','Caudal');</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1154,17 +1001,17 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (5,'Radián','rad','Ángulo plano');</v>
+        <v>INSERT INTO  VALUES (5,'Gramo por centímetro cúbico','g/cm³','Densidad');</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1173,17 +1020,17 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (6,'Estereorradián','sr','Ángulo sólido');</v>
+        <v>INSERT INTO  VALUES (6,'Gramo por metro cúbico','g/m³','Densidad');</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1192,17 +1039,17 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (7,'Metro cuadrado','m²','Área');</v>
+        <v>INSERT INTO  VALUES (7,'Habitantes por km2','habitantes/km2','Densidad');</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1211,17 +1058,17 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (8,'Metro cuadrado','m2','Area, superficie');</v>
+        <v>INSERT INTO  VALUES (8,'Kilogramo por metro cúbico','kg/m³','Densidad');</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1230,17 +1077,17 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (9,'mol','mol','cantidad de sustancia');</v>
+        <v>INSERT INTO  VALUES (9,'Miligramo por metro cúbico','mg/m³','Densidad');</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1249,17 +1096,17 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (10,'Faradio, farad','F','Capacitancia eléctrica');</v>
+        <v>INSERT INTO  VALUES (10,'Peso por kilogramo','CLP/kg','Economía');</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1268,17 +1115,17 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (11,'Culombio, coulomb','C','Carga eléctrica');</v>
+        <v>INSERT INTO  VALUES (11,'Peso por tonelada','CLP/t','Economía');</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1287,17 +1134,17 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (12,'Mol por metro cúbico','mol/m³','Concentración');</v>
+        <v>INSERT INTO  VALUES (12,'por persona','per capita','Economía');</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1306,17 +1153,17 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (13,'Mol por metro cúbico.','mol/m3','Concentración de cantidad de sustancia, concentración');</v>
+        <v>INSERT INTO  VALUES (13,'USD por tonelada','USD/t','Economía');</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1325,17 +1172,17 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (14,'Kilogramo por metro cúbico','kg/m3','Concentración másica');</v>
+        <v>INSERT INTO  VALUES (14,'Kilo Caloria','kcal','Energía');</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1344,17 +1191,17 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (15,'Siemens','S','Conductancia eléctrica');</v>
+        <v>INSERT INTO  VALUES (15,'Kilo watt - hr','kWh','Energía');</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1366,14 +1213,14 @@
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (16,'Vatio por metro kelvin','W/m·K','Conductividad térmica');</v>
+        <v>INSERT INTO  VALUES (16,'Unidad térmica inglesa','BTU','Energía');</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1382,17 +1229,17 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (17,'amperio','A','corriente eléctrica');</v>
+        <v>INSERT INTO  VALUES (17,'Centímetro','cm','Longitud');</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1401,17 +1248,17 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (18,'Kilogramo por metro cúbico','kg/m³','Densidad');</v>
+        <v>INSERT INTO  VALUES (18,'Decímetro','dm','Longitud');</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1420,17 +1267,17 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (19,'Amperio por metro cuadrado','A/m2','Densidad de corriente');</v>
+        <v>INSERT INTO  VALUES (19,'Kilómetro','km','Longitud');</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1439,17 +1286,17 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (20,'Julio por metro cúbico','J/m³','Densidad de energía');</v>
+        <v>INSERT INTO  VALUES (20,'Metro','m','Longitud');</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1458,17 +1305,17 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="E22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (21,'Kilogramo por metro cuadrado','kg/m2','Densidad superficial');</v>
+        <v>INSERT INTO  VALUES (21,'Milímetro','mm','Longitud');</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1477,17 +1324,17 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (22,'Kilogramo por metro cúbico','kg/m3','Densidad, masa en volumen');</v>
+        <v>INSERT INTO  VALUES (22,'Dólar USA','USD','Moneda');</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1496,17 +1343,17 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (23,'Gray','Gy','Dosis absorbida de radiación ionizante');</v>
+        <v>INSERT INTO  VALUES (23,'Euro','EUR','Moneda');</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1515,17 +1362,17 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (24,'Julio por kilogramo','J/kg','Energía específica');</v>
+        <v>INSERT INTO  VALUES (24,'Libra británica','GBP','Moneda');</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1534,17 +1381,17 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (25,'Julio por mol','J/mol','Energía molar');</v>
+        <v>INSERT INTO  VALUES (25,'Peso chileno','CLP','Moneda');</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1553,17 +1400,17 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (26,'Sievert','Sv','Equivalencia de dosis de radiación ionizante');</v>
+        <v>INSERT INTO  VALUES (26,'Yen japonés','JPY','Moneda');</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1572,17 +1419,17 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (27,'Culombio por kilogramo','C/kg','Exposición (rayos X y gamma)');</v>
+        <v>INSERT INTO  VALUES (27,'Gramo','g','Peso');</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1591,17 +1438,17 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="E29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (28,'Lumen','lm','Flujo luminoso');</v>
+        <v>INSERT INTO  VALUES (28,'Kilogramo','kg','Peso');</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1610,17 +1457,17 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (29,'Weber','Wb','Flujo magnético');</v>
+        <v>INSERT INTO  VALUES (29,'Miligramo','mg','Peso');</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1629,17 +1476,17 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="E31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (30,'Metro cúbico por segundo','m³/s','Flujo volumétrico, caudal');</v>
+        <v>INSERT INTO  VALUES (30,'Tonelada','t','Peso');</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1648,17 +1495,17 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (31,'Newton','N','Fuerza');</v>
+        <v>INSERT INTO  VALUES (31,'Horse Power','hp','Potencia');</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1667,17 +1514,17 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (32,'Tesla','T','Inducción magnética');</v>
+        <v>INSERT INTO  VALUES (32,'Kilovatio','kW','Potencia');</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1686,17 +1533,17 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (33,'Henrio, henry','H','Inductancia');</v>
+        <v>INSERT INTO  VALUES (33,'Vatio','W','Potencia');</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1705,17 +1552,17 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="E35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (34,'Voltio por metro','V/m','Intensidad de campo eléctrico');</v>
+        <v>INSERT INTO  VALUES (34,'centímetro cuadrado','cm²','Superficie');</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1724,17 +1571,17 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (35,'Amperio por metro','A/m','Intensidad de campo magnético');</v>
+        <v>INSERT INTO  VALUES (35,'hectárea','ha','Superficie');</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1743,17 +1590,17 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="E37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (36,'candela','cd','intensidad luminosa');</v>
+        <v>INSERT INTO  VALUES (36,'kilómetro cuadrado','km²','Superficie');</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1762,17 +1609,17 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="E38" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (37,'Vatio por metro cuadrado','W/m²','Irradiancia, densidad de flujo de calor');</v>
+        <v>INSERT INTO  VALUES (37,'metro cuadrado','m²','Superficie');</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1781,17 +1628,17 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="E39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (38,'metro','m','longitud');</v>
+        <v>INSERT INTO  VALUES (38,'milímetro cuadrado','mm²','Superficie');</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1800,17 +1647,17 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="E40" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (39,'Candela por metro cuadrado.','cd/m2','Luminancia');</v>
+        <v>INSERT INTO  VALUES (39,'Celsius','°C','Temperatura');</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1819,17 +1666,17 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="E41" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (40,'Lux','lx','Luminosidad');</v>
+        <v>INSERT INTO  VALUES (40,'Kelvin','°K','Temperatura');</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1838,17 +1685,17 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="E42" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (41,'kilogramo','kg','masa');</v>
+        <v>INSERT INTO  VALUES (41,'Año','Año','Tiempo');</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1857,17 +1704,17 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E43" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (42,'Newton metro','N·m','Momento de fuerza');</v>
+        <v>INSERT INTO  VALUES (42,'Bienio','Bienio','Tiempo');</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1876,17 +1723,17 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="E44" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (43,'Metro a la potencia menos uno','m-1','Número de ondas');</v>
+        <v>INSERT INTO  VALUES (43,'Década','Década','Tiempo');</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1895,17 +1742,17 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="E45" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (44,'Vatio, watt','W','Potencia');</v>
+        <v>INSERT INTO  VALUES (44,'Día','Día','Tiempo');</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1914,17 +1761,17 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="E46" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (45,'Voltio, volt','V','Potencial eléctrico, fuerza electromotriz');</v>
+        <v>INSERT INTO  VALUES (45,'Hora','h','Tiempo');</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1933,17 +1780,17 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="E47" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (46,'Pascal','Pa','Presión');</v>
+        <v>INSERT INTO  VALUES (46,'Lustro','Lustro','Tiempo');</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1952,17 +1799,17 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="E48" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (47,'Ohmio, ohm','Ω','Resistencia eléctrica');</v>
+        <v>INSERT INTO  VALUES (47,'Mes','Mes','Tiempo');</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1971,17 +1818,17 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="E49" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (48,'Gray por segundo','Gy/s','Tasa de dosis absorbida');</v>
+        <v>INSERT INTO  VALUES (48,'Minuto','min','Tiempo');</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1990,17 +1837,17 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="E50" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (49,'kelvin','K','temperatura termodinámica');</v>
+        <v>INSERT INTO  VALUES (49,'Quincena','Quincena','Tiempo');</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2009,17 +1856,17 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="E51" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (50,'Julio por metro cuadrado','J/m²','Tensión superficial');</v>
+        <v>INSERT INTO  VALUES (50,'Segundo','s','Tiempo');</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2028,17 +1875,17 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E52" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (51,'segundo','s','tiempo');</v>
+        <v>INSERT INTO  VALUES (51,'Semana','Semana','Tiempo');</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2047,17 +1894,17 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="E53" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (52,'Julio, joule','J','Trabajo');</v>
+        <v>INSERT INTO  VALUES (52,'Semestre','Semestre','Tiempo');</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2066,17 +1913,17 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="E54" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (53,'Metro por segundo','m/s','Velocidad');</v>
+        <v>INSERT INTO  VALUES (53,'Trienio','Trienio','Tiempo');</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2085,17 +1932,17 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="E55" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (54,'Metro por segundo','m/s','Velocidad');</v>
+        <v>INSERT INTO  VALUES (54,'Trimestre','Trimestre','Tiempo');</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2104,17 +1951,17 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="E56" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (55,'Radián por segundo','rad/s','Velocidad angular');</v>
+        <v>INSERT INTO  VALUES (55,'Kilometro por hora','km/h','Velocidad');</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2123,17 +1970,17 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="E57" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (56,'Metro cuadrado por segundo','m²/s','Viscosidad cinemática, coeficiente de difusión');</v>
+        <v>INSERT INTO  VALUES (56,'Kilometro por segundo','km/s','Velocidad');</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2142,17 +1989,17 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="E58" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (57,'Pascal segundo','Pa·s','Viscosidad dinámica');</v>
+        <v>INSERT INTO  VALUES (57,'Metro por segundo','m/s','Velocidad');</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2161,17 +2008,17 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="D59" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="E59" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (58,'Metro cúbico','m³','Volumen');</v>
+        <v>INSERT INTO  VALUES (58,'Centímetro cúbico','cm³','Volumen');</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2180,17 +2027,17 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="D60" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="E60" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (59,'Metro cúbico','m3','Volumen');</v>
+        <v>INSERT INTO  VALUES (59,'Litro','l','Volumen');</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2199,17 +2046,17 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="E61" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (60,'Metro cúbico por kilogramo','m³/kg','Volumen específico');</v>
+        <v>INSERT INTO  VALUES (60,'Metro cúbico','m³','Volumen');</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2218,17 +2065,17 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="D62" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="E62" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (61,'Metro cúbico por kilogramo','m3/kg','Volumen específico');</v>
+        <v>INSERT INTO  VALUES (61,'Mililitro','ml','Volumen');</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2237,17 +2084,17 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="E63" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (62,'Metro cúbico por mol','m³/mol','Volumen molar');</v>
+        <v>INSERT INTO  VALUES (62,'candidatos','candidatos','Unidad');</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2256,17 +2103,17 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="D64" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="E64" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (63,'Número','unidad','Genérico');</v>
+        <v>INSERT INTO  VALUES (63,'empresas','empresas','Unidad');</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2275,17 +2122,17 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="D65" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="E65" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO  VALUES (64,'Porcentaje','%','Genérico');</v>
+        <v>INSERT INTO  VALUES (64,'habitantes','habitantes','Unidad');</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2294,17 +2141,17 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="D66" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="E66" s="2" t="str">
         <f t="shared" ref="E66" si="2">+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A66&amp;","&amp;"'"&amp;B66&amp;"','"&amp;C66&amp;"','"&amp;D66&amp;"');"</f>
-        <v>INSERT INTO  VALUES (65,'NA','No Aplica','No Aplica');</v>
+        <v>INSERT INTO  VALUES (65,'unidades','unidades','Unidad');</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2312,17 +2159,17 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="E67" s="2" t="str">
         <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A67&amp;","&amp;"'"&amp;B67&amp;"','"&amp;C67&amp;"','"&amp;D67&amp;"');"</f>
-        <v>INSERT INTO  VALUES (66,'Toneladas','t','masa');</v>
+        <v>INSERT INTO  VALUES (66,'votos','votos','Unidad');</v>
       </c>
     </row>
   </sheetData>

--- a/000 TABLAS GENERALES/UnidadMedida.xlsx
+++ b/000 TABLAS GENERALES/UnidadMedida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE3CA9E-88F9-40F1-8ED6-00976F76F644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A894F511-FC21-4691-AF23-5D8DFA4714E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3767A57E-79CC-47CE-93B6-1CB5531CD4E5}"/>
   </bookViews>

--- a/000 TABLAS GENERALES/UnidadMedida.xlsx
+++ b/000 TABLAS GENERALES/UnidadMedida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A894F511-FC21-4691-AF23-5D8DFA4714E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BF8F2A-622F-4494-B8F2-3E1E09BB0D60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3767A57E-79CC-47CE-93B6-1CB5531CD4E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="136">
   <si>
     <t>id</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>ml</t>
+  </si>
+  <si>
+    <t>empleados</t>
   </si>
 </sst>
 </file>
@@ -509,12 +512,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,8 +580,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{834C1544-0530-4BED-A188-975CB7996820}" name="unidad_medida" displayName="unidad_medida" ref="A1:E67" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:E67" xr:uid="{0E1D4E17-391D-4729-84D4-B8951EAFC938}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{834C1544-0530-4BED-A188-975CB7996820}" name="unidad_medida" displayName="unidad_medida" ref="A1:E68" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:E68" xr:uid="{0E1D4E17-391D-4729-84D4-B8951EAFC938}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{1895193C-2CDA-46CE-98C2-C7742CE3B74F}" name="id"/>
     <tableColumn id="1" xr3:uid="{BE2FC621-1AFD-4ACE-A057-9C7AC05880C9}" name="nombre"/>
@@ -888,10 +892,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9076BD3C-2350-42C7-BCB4-34951020C443}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2172,6 +2177,24 @@
         <v>INSERT INTO  VALUES (66,'votos','votos','Unidad');</v>
       </c>
     </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="3" t="str">
+        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A68&amp;","&amp;"'"&amp;B68&amp;"','"&amp;C68&amp;"','"&amp;D68&amp;"');"</f>
+        <v>INSERT INTO  VALUES (67,'empleados','empleados','Unidad');</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/000 TABLAS GENERALES/UnidadMedida.xlsx
+++ b/000 TABLAS GENERALES/UnidadMedida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BF8F2A-622F-4494-B8F2-3E1E09BB0D60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298D59AD-B7BF-4CD6-91FD-DEB684581396}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3767A57E-79CC-47CE-93B6-1CB5531CD4E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -442,6 +442,12 @@
   </si>
   <si>
     <t>empleados</t>
+  </si>
+  <si>
+    <t>múltiples</t>
+  </si>
+  <si>
+    <t>multiples</t>
   </si>
 </sst>
 </file>
@@ -580,8 +586,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{834C1544-0530-4BED-A188-975CB7996820}" name="unidad_medida" displayName="unidad_medida" ref="A1:E68" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:E68" xr:uid="{0E1D4E17-391D-4729-84D4-B8951EAFC938}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{834C1544-0530-4BED-A188-975CB7996820}" name="unidad_medida" displayName="unidad_medida" ref="A1:E69" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:E69" xr:uid="{0E1D4E17-391D-4729-84D4-B8951EAFC938}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{1895193C-2CDA-46CE-98C2-C7742CE3B74F}" name="id"/>
     <tableColumn id="1" xr3:uid="{BE2FC621-1AFD-4ACE-A057-9C7AC05880C9}" name="nombre"/>
@@ -892,11 +898,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9076BD3C-2350-42C7-BCB4-34951020C443}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2195,6 +2201,24 @@
         <v>INSERT INTO  VALUES (67,'empleados','empleados','Unidad');</v>
       </c>
     </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="3" t="str">
+        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A69&amp;","&amp;"'"&amp;B69&amp;"','"&amp;C69&amp;"','"&amp;D69&amp;"');"</f>
+        <v>INSERT INTO  VALUES (68,'múltiples','multiples','Unidad');</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/000 TABLAS GENERALES/UnidadMedida.xlsx
+++ b/000 TABLAS GENERALES/UnidadMedida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298D59AD-B7BF-4CD6-91FD-DEB684581396}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297C5A54-B65C-4AE5-AB45-5116C197E763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3767A57E-79CC-47CE-93B6-1CB5531CD4E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t>multiples</t>
+  </si>
+  <si>
+    <t>establecimientos</t>
   </si>
 </sst>
 </file>
@@ -586,8 +589,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{834C1544-0530-4BED-A188-975CB7996820}" name="unidad_medida" displayName="unidad_medida" ref="A1:E69" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:E69" xr:uid="{0E1D4E17-391D-4729-84D4-B8951EAFC938}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{834C1544-0530-4BED-A188-975CB7996820}" name="unidad_medida" displayName="unidad_medida" ref="A1:E70" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:E70" xr:uid="{0E1D4E17-391D-4729-84D4-B8951EAFC938}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{1895193C-2CDA-46CE-98C2-C7742CE3B74F}" name="id"/>
     <tableColumn id="1" xr3:uid="{BE2FC621-1AFD-4ACE-A057-9C7AC05880C9}" name="nombre"/>
@@ -898,11 +901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9076BD3C-2350-42C7-BCB4-34951020C443}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2219,6 +2222,24 @@
         <v>INSERT INTO  VALUES (68,'múltiples','multiples','Unidad');</v>
       </c>
     </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="3" t="str">
+        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A70&amp;","&amp;"'"&amp;B70&amp;"','"&amp;C70&amp;"','"&amp;D70&amp;"');"</f>
+        <v>INSERT INTO  VALUES (69,'establecimientos','establecimientos','Unidad');</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/000 TABLAS GENERALES/UnidadMedida.xlsx
+++ b/000 TABLAS GENERALES/UnidadMedida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297C5A54-B65C-4AE5-AB45-5116C197E763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC6913C-9BFF-4CC4-ABB6-07C4BE428B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3767A57E-79CC-47CE-93B6-1CB5531CD4E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="143">
   <si>
     <t>id</t>
   </si>
@@ -451,6 +451,18 @@
   </si>
   <si>
     <t>establecimientos</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>$/kg</t>
+  </si>
+  <si>
+    <t>Peso chileno por kilogramo</t>
+  </si>
+  <si>
+    <t>Dólares por tonelada</t>
   </si>
 </sst>
 </file>
@@ -589,8 +601,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{834C1544-0530-4BED-A188-975CB7996820}" name="unidad_medida" displayName="unidad_medida" ref="A1:E70" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:E70" xr:uid="{0E1D4E17-391D-4729-84D4-B8951EAFC938}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{834C1544-0530-4BED-A188-975CB7996820}" name="unidad_medida" displayName="unidad_medida" ref="A1:E72" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:E72" xr:uid="{0E1D4E17-391D-4729-84D4-B8951EAFC938}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{1895193C-2CDA-46CE-98C2-C7742CE3B74F}" name="id"/>
     <tableColumn id="1" xr3:uid="{BE2FC621-1AFD-4ACE-A057-9C7AC05880C9}" name="nombre"/>
@@ -901,11 +913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9076BD3C-2350-42C7-BCB4-34951020C443}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2240,6 +2252,42 @@
         <v>INSERT INTO  VALUES (69,'establecimientos','establecimientos','Unidad');</v>
       </c>
     </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" s="3" t="str">
+        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A71&amp;","&amp;"'"&amp;B71&amp;"','"&amp;C71&amp;"','"&amp;D71&amp;"');"</f>
+        <v>INSERT INTO  VALUES (70,'Peso chileno por kilogramo','$/kg','Precio');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" t="s">
+        <v>139</v>
+      </c>
+      <c r="E72" s="3" t="str">
+        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A72&amp;","&amp;"'"&amp;B72&amp;"','"&amp;C72&amp;"','"&amp;D72&amp;"');"</f>
+        <v>INSERT INTO  VALUES (71,'Dólares por tonelada','USD/t','Precio');</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/000 TABLAS GENERALES/UnidadMedida.xlsx
+++ b/000 TABLAS GENERALES/UnidadMedida.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC6913C-9BFF-4CC4-ABB6-07C4BE428B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E1192B-DCFB-4273-A13F-8AC5F22F95B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3767A57E-79CC-47CE-93B6-1CB5531CD4E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3767A57E-79CC-47CE-93B6-1CB5531CD4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="145">
   <si>
     <t>id</t>
   </si>
@@ -463,6 +454,12 @@
   </si>
   <si>
     <t>Dólares por tonelada</t>
+  </si>
+  <si>
+    <t>quintales métricos por hectárea</t>
+  </si>
+  <si>
+    <t>qqm/ha</t>
   </si>
 </sst>
 </file>
@@ -601,8 +598,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{834C1544-0530-4BED-A188-975CB7996820}" name="unidad_medida" displayName="unidad_medida" ref="A1:E72" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:E72" xr:uid="{0E1D4E17-391D-4729-84D4-B8951EAFC938}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{834C1544-0530-4BED-A188-975CB7996820}" name="unidad_medida" displayName="unidad_medida" ref="A1:E73" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:E73" xr:uid="{0E1D4E17-391D-4729-84D4-B8951EAFC938}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{1895193C-2CDA-46CE-98C2-C7742CE3B74F}" name="id"/>
     <tableColumn id="1" xr3:uid="{BE2FC621-1AFD-4ACE-A057-9C7AC05880C9}" name="nombre"/>
@@ -913,23 +910,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9076BD3C-2350-42C7-BCB4-34951020C443}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -946,7 +943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -964,7 +961,7 @@
         <v>INSERT INTO  VALUES (1,'Litros por hora','l/h','Caudal');</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>+A2+1</f>
         <v>2</v>
@@ -983,7 +980,7 @@
         <v>INSERT INTO  VALUES (2,'Litros por segundo','l/s','Caudal');</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A65" si="1">+A3+1</f>
         <v>3</v>
@@ -1002,7 +999,7 @@
         <v>INSERT INTO  VALUES (3,'Metros cúbicos por hora','m³/h','Caudal');</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1021,7 +1018,7 @@
         <v>INSERT INTO  VALUES (4,'Metros cúbicos por segundo','m³/s','Caudal');</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1040,7 +1037,7 @@
         <v>INSERT INTO  VALUES (5,'Gramo por centímetro cúbico','g/cm³','Densidad');</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1059,7 +1056,7 @@
         <v>INSERT INTO  VALUES (6,'Gramo por metro cúbico','g/m³','Densidad');</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1078,7 +1075,7 @@
         <v>INSERT INTO  VALUES (7,'Habitantes por km2','habitantes/km2','Densidad');</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1097,7 +1094,7 @@
         <v>INSERT INTO  VALUES (8,'Kilogramo por metro cúbico','kg/m³','Densidad');</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1116,7 +1113,7 @@
         <v>INSERT INTO  VALUES (9,'Miligramo por metro cúbico','mg/m³','Densidad');</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1135,7 +1132,7 @@
         <v>INSERT INTO  VALUES (10,'Peso por kilogramo','CLP/kg','Economía');</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1154,7 +1151,7 @@
         <v>INSERT INTO  VALUES (11,'Peso por tonelada','CLP/t','Economía');</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1173,7 +1170,7 @@
         <v>INSERT INTO  VALUES (12,'por persona','per capita','Economía');</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1192,7 +1189,7 @@
         <v>INSERT INTO  VALUES (13,'USD por tonelada','USD/t','Economía');</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1211,7 +1208,7 @@
         <v>INSERT INTO  VALUES (14,'Kilo Caloria','kcal','Energía');</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1230,7 +1227,7 @@
         <v>INSERT INTO  VALUES (15,'Kilo watt - hr','kWh','Energía');</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1249,7 +1246,7 @@
         <v>INSERT INTO  VALUES (16,'Unidad térmica inglesa','BTU','Energía');</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1268,7 +1265,7 @@
         <v>INSERT INTO  VALUES (17,'Centímetro','cm','Longitud');</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1287,7 +1284,7 @@
         <v>INSERT INTO  VALUES (18,'Decímetro','dm','Longitud');</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1306,7 +1303,7 @@
         <v>INSERT INTO  VALUES (19,'Kilómetro','km','Longitud');</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1325,7 +1322,7 @@
         <v>INSERT INTO  VALUES (20,'Metro','m','Longitud');</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1344,7 +1341,7 @@
         <v>INSERT INTO  VALUES (21,'Milímetro','mm','Longitud');</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1363,7 +1360,7 @@
         <v>INSERT INTO  VALUES (22,'Dólar USA','USD','Moneda');</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1382,7 +1379,7 @@
         <v>INSERT INTO  VALUES (23,'Euro','EUR','Moneda');</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1401,7 +1398,7 @@
         <v>INSERT INTO  VALUES (24,'Libra británica','GBP','Moneda');</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1420,7 +1417,7 @@
         <v>INSERT INTO  VALUES (25,'Peso chileno','CLP','Moneda');</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1439,7 +1436,7 @@
         <v>INSERT INTO  VALUES (26,'Yen japonés','JPY','Moneda');</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1458,7 +1455,7 @@
         <v>INSERT INTO  VALUES (27,'Gramo','g','Peso');</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1477,7 +1474,7 @@
         <v>INSERT INTO  VALUES (28,'Kilogramo','kg','Peso');</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1496,7 +1493,7 @@
         <v>INSERT INTO  VALUES (29,'Miligramo','mg','Peso');</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1515,7 +1512,7 @@
         <v>INSERT INTO  VALUES (30,'Tonelada','t','Peso');</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1534,7 +1531,7 @@
         <v>INSERT INTO  VALUES (31,'Horse Power','hp','Potencia');</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1553,7 +1550,7 @@
         <v>INSERT INTO  VALUES (32,'Kilovatio','kW','Potencia');</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1572,7 +1569,7 @@
         <v>INSERT INTO  VALUES (33,'Vatio','W','Potencia');</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1591,7 +1588,7 @@
         <v>INSERT INTO  VALUES (34,'centímetro cuadrado','cm²','Superficie');</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1610,7 +1607,7 @@
         <v>INSERT INTO  VALUES (35,'hectárea','ha','Superficie');</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1629,7 +1626,7 @@
         <v>INSERT INTO  VALUES (36,'kilómetro cuadrado','km²','Superficie');</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1648,7 +1645,7 @@
         <v>INSERT INTO  VALUES (37,'metro cuadrado','m²','Superficie');</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1667,7 +1664,7 @@
         <v>INSERT INTO  VALUES (38,'milímetro cuadrado','mm²','Superficie');</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1686,7 +1683,7 @@
         <v>INSERT INTO  VALUES (39,'Celsius','°C','Temperatura');</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1705,7 +1702,7 @@
         <v>INSERT INTO  VALUES (40,'Kelvin','°K','Temperatura');</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1724,7 +1721,7 @@
         <v>INSERT INTO  VALUES (41,'Año','Año','Tiempo');</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1743,7 +1740,7 @@
         <v>INSERT INTO  VALUES (42,'Bienio','Bienio','Tiempo');</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1762,7 +1759,7 @@
         <v>INSERT INTO  VALUES (43,'Década','Década','Tiempo');</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1781,7 +1778,7 @@
         <v>INSERT INTO  VALUES (44,'Día','Día','Tiempo');</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -1800,7 +1797,7 @@
         <v>INSERT INTO  VALUES (45,'Hora','h','Tiempo');</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -1819,7 +1816,7 @@
         <v>INSERT INTO  VALUES (46,'Lustro','Lustro','Tiempo');</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -1838,7 +1835,7 @@
         <v>INSERT INTO  VALUES (47,'Mes','Mes','Tiempo');</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -1857,7 +1854,7 @@
         <v>INSERT INTO  VALUES (48,'Minuto','min','Tiempo');</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1876,7 +1873,7 @@
         <v>INSERT INTO  VALUES (49,'Quincena','Quincena','Tiempo');</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -1895,7 +1892,7 @@
         <v>INSERT INTO  VALUES (50,'Segundo','s','Tiempo');</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -1914,7 +1911,7 @@
         <v>INSERT INTO  VALUES (51,'Semana','Semana','Tiempo');</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -1933,7 +1930,7 @@
         <v>INSERT INTO  VALUES (52,'Semestre','Semestre','Tiempo');</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -1952,7 +1949,7 @@
         <v>INSERT INTO  VALUES (53,'Trienio','Trienio','Tiempo');</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -1971,7 +1968,7 @@
         <v>INSERT INTO  VALUES (54,'Trimestre','Trimestre','Tiempo');</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -1990,7 +1987,7 @@
         <v>INSERT INTO  VALUES (55,'Kilometro por hora','km/h','Velocidad');</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2009,7 +2006,7 @@
         <v>INSERT INTO  VALUES (56,'Kilometro por segundo','km/s','Velocidad');</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2028,7 +2025,7 @@
         <v>INSERT INTO  VALUES (57,'Metro por segundo','m/s','Velocidad');</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2047,7 +2044,7 @@
         <v>INSERT INTO  VALUES (58,'Centímetro cúbico','cm³','Volumen');</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2066,7 +2063,7 @@
         <v>INSERT INTO  VALUES (59,'Litro','l','Volumen');</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2085,7 +2082,7 @@
         <v>INSERT INTO  VALUES (60,'Metro cúbico','m³','Volumen');</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2104,7 +2101,7 @@
         <v>INSERT INTO  VALUES (61,'Mililitro','ml','Volumen');</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -2123,7 +2120,7 @@
         <v>INSERT INTO  VALUES (62,'candidatos','candidatos','Unidad');</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -2142,7 +2139,7 @@
         <v>INSERT INTO  VALUES (63,'empresas','empresas','Unidad');</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -2161,7 +2158,7 @@
         <v>INSERT INTO  VALUES (64,'habitantes','habitantes','Unidad');</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>+A65+1</f>
         <v>65</v>
@@ -2180,7 +2177,7 @@
         <v>INSERT INTO  VALUES (65,'unidades','unidades','Unidad');</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2194,11 +2191,11 @@
         <v>31</v>
       </c>
       <c r="E67" s="2" t="str">
-        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A67&amp;","&amp;"'"&amp;B67&amp;"','"&amp;C67&amp;"','"&amp;D67&amp;"');"</f>
+        <f t="shared" ref="E67:E72" si="3">+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A67&amp;","&amp;"'"&amp;B67&amp;"','"&amp;C67&amp;"','"&amp;D67&amp;"');"</f>
         <v>INSERT INTO  VALUES (66,'votos','votos','Unidad');</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2212,11 +2209,11 @@
         <v>31</v>
       </c>
       <c r="E68" s="3" t="str">
-        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A68&amp;","&amp;"'"&amp;B68&amp;"','"&amp;C68&amp;"','"&amp;D68&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO  VALUES (67,'empleados','empleados','Unidad');</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2230,11 +2227,11 @@
         <v>31</v>
       </c>
       <c r="E69" s="3" t="str">
-        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A69&amp;","&amp;"'"&amp;B69&amp;"','"&amp;C69&amp;"','"&amp;D69&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO  VALUES (68,'múltiples','multiples','Unidad');</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2248,11 +2245,11 @@
         <v>31</v>
       </c>
       <c r="E70" s="3" t="str">
-        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A70&amp;","&amp;"'"&amp;B70&amp;"','"&amp;C70&amp;"','"&amp;D70&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO  VALUES (69,'establecimientos','establecimientos','Unidad');</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2266,11 +2263,11 @@
         <v>139</v>
       </c>
       <c r="E71" s="3" t="str">
-        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A71&amp;","&amp;"'"&amp;B71&amp;"','"&amp;C71&amp;"','"&amp;D71&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO  VALUES (70,'Peso chileno por kilogramo','$/kg','Precio');</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2284,8 +2281,26 @@
         <v>139</v>
       </c>
       <c r="E72" s="3" t="str">
-        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A72&amp;","&amp;"'"&amp;B72&amp;"','"&amp;C72&amp;"','"&amp;D72&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO  VALUES (71,'Dólares por tonelada','USD/t','Precio');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="3" t="str">
+        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A73&amp;","&amp;"'"&amp;B73&amp;"','"&amp;C73&amp;"','"&amp;D73&amp;"');"</f>
+        <v>INSERT INTO  VALUES (72,'quintales métricos por hectárea','qqm/ha','Economía');</v>
       </c>
     </row>
   </sheetData>

--- a/000 TABLAS GENERALES/UnidadMedida.xlsx
+++ b/000 TABLAS GENERALES/UnidadMedida.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E1192B-DCFB-4273-A13F-8AC5F22F95B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDAF18C-269D-48EB-A250-1281E5DC5E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3767A57E-79CC-47CE-93B6-1CB5531CD4E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3767A57E-79CC-47CE-93B6-1CB5531CD4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="147">
   <si>
     <t>id</t>
   </si>
@@ -460,6 +469,12 @@
   </si>
   <si>
     <t>qqm/ha</t>
+  </si>
+  <si>
+    <t>casos</t>
+  </si>
+  <si>
+    <t>víctimas</t>
   </si>
 </sst>
 </file>
@@ -598,8 +613,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{834C1544-0530-4BED-A188-975CB7996820}" name="unidad_medida" displayName="unidad_medida" ref="A1:E73" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:E73" xr:uid="{0E1D4E17-391D-4729-84D4-B8951EAFC938}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{834C1544-0530-4BED-A188-975CB7996820}" name="unidad_medida" displayName="unidad_medida" ref="A1:E75" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:E75" xr:uid="{0E1D4E17-391D-4729-84D4-B8951EAFC938}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{1895193C-2CDA-46CE-98C2-C7742CE3B74F}" name="id"/>
     <tableColumn id="1" xr3:uid="{BE2FC621-1AFD-4ACE-A057-9C7AC05880C9}" name="nombre"/>
@@ -910,23 +925,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9076BD3C-2350-42C7-BCB4-34951020C443}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -943,7 +958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -961,7 +976,7 @@
         <v>INSERT INTO  VALUES (1,'Litros por hora','l/h','Caudal');</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>+A2+1</f>
         <v>2</v>
@@ -980,7 +995,7 @@
         <v>INSERT INTO  VALUES (2,'Litros por segundo','l/s','Caudal');</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A65" si="1">+A3+1</f>
         <v>3</v>
@@ -999,7 +1014,7 @@
         <v>INSERT INTO  VALUES (3,'Metros cúbicos por hora','m³/h','Caudal');</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1018,7 +1033,7 @@
         <v>INSERT INTO  VALUES (4,'Metros cúbicos por segundo','m³/s','Caudal');</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1037,7 +1052,7 @@
         <v>INSERT INTO  VALUES (5,'Gramo por centímetro cúbico','g/cm³','Densidad');</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1056,7 +1071,7 @@
         <v>INSERT INTO  VALUES (6,'Gramo por metro cúbico','g/m³','Densidad');</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1075,7 +1090,7 @@
         <v>INSERT INTO  VALUES (7,'Habitantes por km2','habitantes/km2','Densidad');</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1094,7 +1109,7 @@
         <v>INSERT INTO  VALUES (8,'Kilogramo por metro cúbico','kg/m³','Densidad');</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1113,7 +1128,7 @@
         <v>INSERT INTO  VALUES (9,'Miligramo por metro cúbico','mg/m³','Densidad');</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1132,7 +1147,7 @@
         <v>INSERT INTO  VALUES (10,'Peso por kilogramo','CLP/kg','Economía');</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1151,7 +1166,7 @@
         <v>INSERT INTO  VALUES (11,'Peso por tonelada','CLP/t','Economía');</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1170,7 +1185,7 @@
         <v>INSERT INTO  VALUES (12,'por persona','per capita','Economía');</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1189,7 +1204,7 @@
         <v>INSERT INTO  VALUES (13,'USD por tonelada','USD/t','Economía');</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1208,7 +1223,7 @@
         <v>INSERT INTO  VALUES (14,'Kilo Caloria','kcal','Energía');</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1227,7 +1242,7 @@
         <v>INSERT INTO  VALUES (15,'Kilo watt - hr','kWh','Energía');</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1246,7 +1261,7 @@
         <v>INSERT INTO  VALUES (16,'Unidad térmica inglesa','BTU','Energía');</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1265,7 +1280,7 @@
         <v>INSERT INTO  VALUES (17,'Centímetro','cm','Longitud');</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1284,7 +1299,7 @@
         <v>INSERT INTO  VALUES (18,'Decímetro','dm','Longitud');</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1303,7 +1318,7 @@
         <v>INSERT INTO  VALUES (19,'Kilómetro','km','Longitud');</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1322,7 +1337,7 @@
         <v>INSERT INTO  VALUES (20,'Metro','m','Longitud');</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1341,7 +1356,7 @@
         <v>INSERT INTO  VALUES (21,'Milímetro','mm','Longitud');</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1360,7 +1375,7 @@
         <v>INSERT INTO  VALUES (22,'Dólar USA','USD','Moneda');</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1379,7 +1394,7 @@
         <v>INSERT INTO  VALUES (23,'Euro','EUR','Moneda');</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1398,7 +1413,7 @@
         <v>INSERT INTO  VALUES (24,'Libra británica','GBP','Moneda');</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1417,7 +1432,7 @@
         <v>INSERT INTO  VALUES (25,'Peso chileno','CLP','Moneda');</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1436,7 +1451,7 @@
         <v>INSERT INTO  VALUES (26,'Yen japonés','JPY','Moneda');</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1455,7 +1470,7 @@
         <v>INSERT INTO  VALUES (27,'Gramo','g','Peso');</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1474,7 +1489,7 @@
         <v>INSERT INTO  VALUES (28,'Kilogramo','kg','Peso');</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1493,7 +1508,7 @@
         <v>INSERT INTO  VALUES (29,'Miligramo','mg','Peso');</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1512,7 +1527,7 @@
         <v>INSERT INTO  VALUES (30,'Tonelada','t','Peso');</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1531,7 +1546,7 @@
         <v>INSERT INTO  VALUES (31,'Horse Power','hp','Potencia');</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1550,7 +1565,7 @@
         <v>INSERT INTO  VALUES (32,'Kilovatio','kW','Potencia');</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1569,7 +1584,7 @@
         <v>INSERT INTO  VALUES (33,'Vatio','W','Potencia');</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1588,7 +1603,7 @@
         <v>INSERT INTO  VALUES (34,'centímetro cuadrado','cm²','Superficie');</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1607,7 +1622,7 @@
         <v>INSERT INTO  VALUES (35,'hectárea','ha','Superficie');</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1626,7 +1641,7 @@
         <v>INSERT INTO  VALUES (36,'kilómetro cuadrado','km²','Superficie');</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1645,7 +1660,7 @@
         <v>INSERT INTO  VALUES (37,'metro cuadrado','m²','Superficie');</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1664,7 +1679,7 @@
         <v>INSERT INTO  VALUES (38,'milímetro cuadrado','mm²','Superficie');</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1683,7 +1698,7 @@
         <v>INSERT INTO  VALUES (39,'Celsius','°C','Temperatura');</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1702,7 +1717,7 @@
         <v>INSERT INTO  VALUES (40,'Kelvin','°K','Temperatura');</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1721,7 +1736,7 @@
         <v>INSERT INTO  VALUES (41,'Año','Año','Tiempo');</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1740,7 +1755,7 @@
         <v>INSERT INTO  VALUES (42,'Bienio','Bienio','Tiempo');</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1759,7 +1774,7 @@
         <v>INSERT INTO  VALUES (43,'Década','Década','Tiempo');</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1778,7 +1793,7 @@
         <v>INSERT INTO  VALUES (44,'Día','Día','Tiempo');</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -1797,7 +1812,7 @@
         <v>INSERT INTO  VALUES (45,'Hora','h','Tiempo');</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -1816,7 +1831,7 @@
         <v>INSERT INTO  VALUES (46,'Lustro','Lustro','Tiempo');</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -1835,7 +1850,7 @@
         <v>INSERT INTO  VALUES (47,'Mes','Mes','Tiempo');</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -1854,7 +1869,7 @@
         <v>INSERT INTO  VALUES (48,'Minuto','min','Tiempo');</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1873,7 +1888,7 @@
         <v>INSERT INTO  VALUES (49,'Quincena','Quincena','Tiempo');</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -1892,7 +1907,7 @@
         <v>INSERT INTO  VALUES (50,'Segundo','s','Tiempo');</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -1911,7 +1926,7 @@
         <v>INSERT INTO  VALUES (51,'Semana','Semana','Tiempo');</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -1930,7 +1945,7 @@
         <v>INSERT INTO  VALUES (52,'Semestre','Semestre','Tiempo');</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -1949,7 +1964,7 @@
         <v>INSERT INTO  VALUES (53,'Trienio','Trienio','Tiempo');</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -1968,7 +1983,7 @@
         <v>INSERT INTO  VALUES (54,'Trimestre','Trimestre','Tiempo');</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -1987,7 +2002,7 @@
         <v>INSERT INTO  VALUES (55,'Kilometro por hora','km/h','Velocidad');</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2006,7 +2021,7 @@
         <v>INSERT INTO  VALUES (56,'Kilometro por segundo','km/s','Velocidad');</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2025,7 +2040,7 @@
         <v>INSERT INTO  VALUES (57,'Metro por segundo','m/s','Velocidad');</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2044,7 +2059,7 @@
         <v>INSERT INTO  VALUES (58,'Centímetro cúbico','cm³','Volumen');</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2063,7 +2078,7 @@
         <v>INSERT INTO  VALUES (59,'Litro','l','Volumen');</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2082,7 +2097,7 @@
         <v>INSERT INTO  VALUES (60,'Metro cúbico','m³','Volumen');</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2101,7 +2116,7 @@
         <v>INSERT INTO  VALUES (61,'Mililitro','ml','Volumen');</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -2120,7 +2135,7 @@
         <v>INSERT INTO  VALUES (62,'candidatos','candidatos','Unidad');</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -2139,7 +2154,7 @@
         <v>INSERT INTO  VALUES (63,'empresas','empresas','Unidad');</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -2158,7 +2173,7 @@
         <v>INSERT INTO  VALUES (64,'habitantes','habitantes','Unidad');</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <f>+A65+1</f>
         <v>65</v>
@@ -2177,7 +2192,7 @@
         <v>INSERT INTO  VALUES (65,'unidades','unidades','Unidad');</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2195,7 +2210,7 @@
         <v>INSERT INTO  VALUES (66,'votos','votos','Unidad');</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2213,7 +2228,7 @@
         <v>INSERT INTO  VALUES (67,'empleados','empleados','Unidad');</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2231,7 +2246,7 @@
         <v>INSERT INTO  VALUES (68,'múltiples','multiples','Unidad');</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2249,7 +2264,7 @@
         <v>INSERT INTO  VALUES (69,'establecimientos','establecimientos','Unidad');</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2267,7 +2282,7 @@
         <v>INSERT INTO  VALUES (70,'Peso chileno por kilogramo','$/kg','Precio');</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2285,7 +2300,7 @@
         <v>INSERT INTO  VALUES (71,'Dólares por tonelada','USD/t','Precio');</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2301,6 +2316,42 @@
       <c r="E73" s="3" t="str">
         <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A73&amp;","&amp;"'"&amp;B73&amp;"','"&amp;C73&amp;"','"&amp;D73&amp;"');"</f>
         <v>INSERT INTO  VALUES (72,'quintales métricos por hectárea','qqm/ha','Economía');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="3" t="str">
+        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A74&amp;","&amp;"'"&amp;B74&amp;"','"&amp;C74&amp;"','"&amp;D74&amp;"');"</f>
+        <v>INSERT INTO  VALUES (73,'casos','casos','Unidad');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" s="3" t="str">
+        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A75&amp;","&amp;"'"&amp;B75&amp;"','"&amp;C75&amp;"','"&amp;D75&amp;"');"</f>
+        <v>INSERT INTO  VALUES (74,'víctimas','víctimas','Unidad');</v>
       </c>
     </row>
   </sheetData>

--- a/000 TABLAS GENERALES/UnidadMedida.xlsx
+++ b/000 TABLAS GENERALES/UnidadMedida.xlsx
@@ -5,36 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDAF18C-269D-48EB-A250-1281E5DC5E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507C549C-79F6-4B00-89FE-6B308835106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3767A57E-79CC-47CE-93B6-1CB5531CD4E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3767A57E-79CC-47CE-93B6-1CB5531CD4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="148">
   <si>
     <t>id</t>
   </si>
@@ -475,6 +466,9 @@
   </si>
   <si>
     <t>víctimas</t>
+  </si>
+  <si>
+    <t>centros</t>
   </si>
 </sst>
 </file>
@@ -613,8 +607,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{834C1544-0530-4BED-A188-975CB7996820}" name="unidad_medida" displayName="unidad_medida" ref="A1:E75" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:E75" xr:uid="{0E1D4E17-391D-4729-84D4-B8951EAFC938}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{834C1544-0530-4BED-A188-975CB7996820}" name="unidad_medida" displayName="unidad_medida" ref="A1:E76" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:E76" xr:uid="{0E1D4E17-391D-4729-84D4-B8951EAFC938}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{1895193C-2CDA-46CE-98C2-C7742CE3B74F}" name="id"/>
     <tableColumn id="1" xr3:uid="{BE2FC621-1AFD-4ACE-A057-9C7AC05880C9}" name="nombre"/>
@@ -925,23 +919,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9076BD3C-2350-42C7-BCB4-34951020C443}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -958,7 +952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -976,7 +970,7 @@
         <v>INSERT INTO  VALUES (1,'Litros por hora','l/h','Caudal');</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>+A2+1</f>
         <v>2</v>
@@ -995,7 +989,7 @@
         <v>INSERT INTO  VALUES (2,'Litros por segundo','l/s','Caudal');</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A65" si="1">+A3+1</f>
         <v>3</v>
@@ -1014,7 +1008,7 @@
         <v>INSERT INTO  VALUES (3,'Metros cúbicos por hora','m³/h','Caudal');</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1033,7 +1027,7 @@
         <v>INSERT INTO  VALUES (4,'Metros cúbicos por segundo','m³/s','Caudal');</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1052,7 +1046,7 @@
         <v>INSERT INTO  VALUES (5,'Gramo por centímetro cúbico','g/cm³','Densidad');</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1071,7 +1065,7 @@
         <v>INSERT INTO  VALUES (6,'Gramo por metro cúbico','g/m³','Densidad');</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1090,7 +1084,7 @@
         <v>INSERT INTO  VALUES (7,'Habitantes por km2','habitantes/km2','Densidad');</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1109,7 +1103,7 @@
         <v>INSERT INTO  VALUES (8,'Kilogramo por metro cúbico','kg/m³','Densidad');</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1128,7 +1122,7 @@
         <v>INSERT INTO  VALUES (9,'Miligramo por metro cúbico','mg/m³','Densidad');</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1147,7 +1141,7 @@
         <v>INSERT INTO  VALUES (10,'Peso por kilogramo','CLP/kg','Economía');</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1166,7 +1160,7 @@
         <v>INSERT INTO  VALUES (11,'Peso por tonelada','CLP/t','Economía');</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1185,7 +1179,7 @@
         <v>INSERT INTO  VALUES (12,'por persona','per capita','Economía');</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1204,7 +1198,7 @@
         <v>INSERT INTO  VALUES (13,'USD por tonelada','USD/t','Economía');</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1223,7 +1217,7 @@
         <v>INSERT INTO  VALUES (14,'Kilo Caloria','kcal','Energía');</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1242,7 +1236,7 @@
         <v>INSERT INTO  VALUES (15,'Kilo watt - hr','kWh','Energía');</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1261,7 +1255,7 @@
         <v>INSERT INTO  VALUES (16,'Unidad térmica inglesa','BTU','Energía');</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1280,7 +1274,7 @@
         <v>INSERT INTO  VALUES (17,'Centímetro','cm','Longitud');</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1299,7 +1293,7 @@
         <v>INSERT INTO  VALUES (18,'Decímetro','dm','Longitud');</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1318,7 +1312,7 @@
         <v>INSERT INTO  VALUES (19,'Kilómetro','km','Longitud');</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1337,7 +1331,7 @@
         <v>INSERT INTO  VALUES (20,'Metro','m','Longitud');</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1356,7 +1350,7 @@
         <v>INSERT INTO  VALUES (21,'Milímetro','mm','Longitud');</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1375,7 +1369,7 @@
         <v>INSERT INTO  VALUES (22,'Dólar USA','USD','Moneda');</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1394,7 +1388,7 @@
         <v>INSERT INTO  VALUES (23,'Euro','EUR','Moneda');</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1413,7 +1407,7 @@
         <v>INSERT INTO  VALUES (24,'Libra británica','GBP','Moneda');</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1432,7 +1426,7 @@
         <v>INSERT INTO  VALUES (25,'Peso chileno','CLP','Moneda');</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1451,7 +1445,7 @@
         <v>INSERT INTO  VALUES (26,'Yen japonés','JPY','Moneda');</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1470,7 +1464,7 @@
         <v>INSERT INTO  VALUES (27,'Gramo','g','Peso');</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1489,7 +1483,7 @@
         <v>INSERT INTO  VALUES (28,'Kilogramo','kg','Peso');</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1508,7 +1502,7 @@
         <v>INSERT INTO  VALUES (29,'Miligramo','mg','Peso');</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1527,7 +1521,7 @@
         <v>INSERT INTO  VALUES (30,'Tonelada','t','Peso');</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1546,7 +1540,7 @@
         <v>INSERT INTO  VALUES (31,'Horse Power','hp','Potencia');</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1565,7 +1559,7 @@
         <v>INSERT INTO  VALUES (32,'Kilovatio','kW','Potencia');</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1584,7 +1578,7 @@
         <v>INSERT INTO  VALUES (33,'Vatio','W','Potencia');</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1603,7 +1597,7 @@
         <v>INSERT INTO  VALUES (34,'centímetro cuadrado','cm²','Superficie');</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1622,7 +1616,7 @@
         <v>INSERT INTO  VALUES (35,'hectárea','ha','Superficie');</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1641,7 +1635,7 @@
         <v>INSERT INTO  VALUES (36,'kilómetro cuadrado','km²','Superficie');</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1660,7 +1654,7 @@
         <v>INSERT INTO  VALUES (37,'metro cuadrado','m²','Superficie');</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1679,7 +1673,7 @@
         <v>INSERT INTO  VALUES (38,'milímetro cuadrado','mm²','Superficie');</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1698,7 +1692,7 @@
         <v>INSERT INTO  VALUES (39,'Celsius','°C','Temperatura');</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1717,7 +1711,7 @@
         <v>INSERT INTO  VALUES (40,'Kelvin','°K','Temperatura');</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1736,7 +1730,7 @@
         <v>INSERT INTO  VALUES (41,'Año','Año','Tiempo');</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1755,7 +1749,7 @@
         <v>INSERT INTO  VALUES (42,'Bienio','Bienio','Tiempo');</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1774,7 +1768,7 @@
         <v>INSERT INTO  VALUES (43,'Década','Década','Tiempo');</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1793,7 +1787,7 @@
         <v>INSERT INTO  VALUES (44,'Día','Día','Tiempo');</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -1812,7 +1806,7 @@
         <v>INSERT INTO  VALUES (45,'Hora','h','Tiempo');</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -1831,7 +1825,7 @@
         <v>INSERT INTO  VALUES (46,'Lustro','Lustro','Tiempo');</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -1850,7 +1844,7 @@
         <v>INSERT INTO  VALUES (47,'Mes','Mes','Tiempo');</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -1869,7 +1863,7 @@
         <v>INSERT INTO  VALUES (48,'Minuto','min','Tiempo');</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1888,7 +1882,7 @@
         <v>INSERT INTO  VALUES (49,'Quincena','Quincena','Tiempo');</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -1907,7 +1901,7 @@
         <v>INSERT INTO  VALUES (50,'Segundo','s','Tiempo');</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -1926,7 +1920,7 @@
         <v>INSERT INTO  VALUES (51,'Semana','Semana','Tiempo');</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -1945,7 +1939,7 @@
         <v>INSERT INTO  VALUES (52,'Semestre','Semestre','Tiempo');</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -1964,7 +1958,7 @@
         <v>INSERT INTO  VALUES (53,'Trienio','Trienio','Tiempo');</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -1983,7 +1977,7 @@
         <v>INSERT INTO  VALUES (54,'Trimestre','Trimestre','Tiempo');</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2002,7 +1996,7 @@
         <v>INSERT INTO  VALUES (55,'Kilometro por hora','km/h','Velocidad');</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2021,7 +2015,7 @@
         <v>INSERT INTO  VALUES (56,'Kilometro por segundo','km/s','Velocidad');</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2040,7 +2034,7 @@
         <v>INSERT INTO  VALUES (57,'Metro por segundo','m/s','Velocidad');</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2059,7 +2053,7 @@
         <v>INSERT INTO  VALUES (58,'Centímetro cúbico','cm³','Volumen');</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2078,7 +2072,7 @@
         <v>INSERT INTO  VALUES (59,'Litro','l','Volumen');</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2097,7 +2091,7 @@
         <v>INSERT INTO  VALUES (60,'Metro cúbico','m³','Volumen');</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2116,7 +2110,7 @@
         <v>INSERT INTO  VALUES (61,'Mililitro','ml','Volumen');</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -2135,7 +2129,7 @@
         <v>INSERT INTO  VALUES (62,'candidatos','candidatos','Unidad');</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -2154,7 +2148,7 @@
         <v>INSERT INTO  VALUES (63,'empresas','empresas','Unidad');</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -2173,7 +2167,7 @@
         <v>INSERT INTO  VALUES (64,'habitantes','habitantes','Unidad');</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>+A65+1</f>
         <v>65</v>
@@ -2192,7 +2186,7 @@
         <v>INSERT INTO  VALUES (65,'unidades','unidades','Unidad');</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2210,7 +2204,7 @@
         <v>INSERT INTO  VALUES (66,'votos','votos','Unidad');</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2228,7 +2222,7 @@
         <v>INSERT INTO  VALUES (67,'empleados','empleados','Unidad');</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2246,7 +2240,7 @@
         <v>INSERT INTO  VALUES (68,'múltiples','multiples','Unidad');</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2264,7 +2258,7 @@
         <v>INSERT INTO  VALUES (69,'establecimientos','establecimientos','Unidad');</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2282,7 +2276,7 @@
         <v>INSERT INTO  VALUES (70,'Peso chileno por kilogramo','$/kg','Precio');</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2300,7 +2294,7 @@
         <v>INSERT INTO  VALUES (71,'Dólares por tonelada','USD/t','Precio');</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2318,7 +2312,7 @@
         <v>INSERT INTO  VALUES (72,'quintales métricos por hectárea','qqm/ha','Economía');</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2336,7 +2330,7 @@
         <v>INSERT INTO  VALUES (73,'casos','casos','Unidad');</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2352,6 +2346,24 @@
       <c r="E75" s="3" t="str">
         <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A75&amp;","&amp;"'"&amp;B75&amp;"','"&amp;C75&amp;"','"&amp;D75&amp;"');"</f>
         <v>INSERT INTO  VALUES (74,'víctimas','víctimas','Unidad');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="3" t="str">
+        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A76&amp;","&amp;"'"&amp;B76&amp;"','"&amp;C76&amp;"','"&amp;D76&amp;"');"</f>
+        <v>INSERT INTO  VALUES (75,'centros','centros','Unidad');</v>
       </c>
     </row>
   </sheetData>

--- a/000 TABLAS GENERALES/UnidadMedida.xlsx
+++ b/000 TABLAS GENERALES/UnidadMedida.xlsx
@@ -5,27 +5,36 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-COMUN\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507C549C-79F6-4B00-89FE-6B308835106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CDAF34-84DF-460D-AB35-5E0AFE401CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3767A57E-79CC-47CE-93B6-1CB5531CD4E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3767A57E-79CC-47CE-93B6-1CB5531CD4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="155">
   <si>
     <t>id</t>
   </si>
@@ -469,6 +478,27 @@
   </si>
   <si>
     <t>centros</t>
+  </si>
+  <si>
+    <t>porcentaje</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Relativo</t>
+  </si>
+  <si>
+    <t>tasa por 100 mil habitantes</t>
+  </si>
+  <si>
+    <t>frecuencia/100 mil habitantes</t>
+  </si>
+  <si>
+    <t>tasa por 1 millón habitantes</t>
+  </si>
+  <si>
+    <t>frecuencia/1.000.000 habitantes</t>
   </si>
 </sst>
 </file>
@@ -607,8 +637,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{834C1544-0530-4BED-A188-975CB7996820}" name="unidad_medida" displayName="unidad_medida" ref="A1:E76" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:E76" xr:uid="{0E1D4E17-391D-4729-84D4-B8951EAFC938}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{834C1544-0530-4BED-A188-975CB7996820}" name="unidad_medida" displayName="unidad_medida" ref="A1:E79" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:E79" xr:uid="{0E1D4E17-391D-4729-84D4-B8951EAFC938}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{1895193C-2CDA-46CE-98C2-C7742CE3B74F}" name="id"/>
     <tableColumn id="1" xr3:uid="{BE2FC621-1AFD-4ACE-A057-9C7AC05880C9}" name="nombre"/>
@@ -919,23 +949,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9076BD3C-2350-42C7-BCB4-34951020C443}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -970,7 +1000,7 @@
         <v>INSERT INTO  VALUES (1,'Litros por hora','l/h','Caudal');</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>+A2+1</f>
         <v>2</v>
@@ -989,7 +1019,7 @@
         <v>INSERT INTO  VALUES (2,'Litros por segundo','l/s','Caudal');</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A65" si="1">+A3+1</f>
         <v>3</v>
@@ -1008,7 +1038,7 @@
         <v>INSERT INTO  VALUES (3,'Metros cúbicos por hora','m³/h','Caudal');</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1027,7 +1057,7 @@
         <v>INSERT INTO  VALUES (4,'Metros cúbicos por segundo','m³/s','Caudal');</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1046,7 +1076,7 @@
         <v>INSERT INTO  VALUES (5,'Gramo por centímetro cúbico','g/cm³','Densidad');</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1065,7 +1095,7 @@
         <v>INSERT INTO  VALUES (6,'Gramo por metro cúbico','g/m³','Densidad');</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1084,7 +1114,7 @@
         <v>INSERT INTO  VALUES (7,'Habitantes por km2','habitantes/km2','Densidad');</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1103,7 +1133,7 @@
         <v>INSERT INTO  VALUES (8,'Kilogramo por metro cúbico','kg/m³','Densidad');</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1122,7 +1152,7 @@
         <v>INSERT INTO  VALUES (9,'Miligramo por metro cúbico','mg/m³','Densidad');</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1141,7 +1171,7 @@
         <v>INSERT INTO  VALUES (10,'Peso por kilogramo','CLP/kg','Economía');</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1160,7 +1190,7 @@
         <v>INSERT INTO  VALUES (11,'Peso por tonelada','CLP/t','Economía');</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1179,7 +1209,7 @@
         <v>INSERT INTO  VALUES (12,'por persona','per capita','Economía');</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1198,7 +1228,7 @@
         <v>INSERT INTO  VALUES (13,'USD por tonelada','USD/t','Economía');</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1217,7 +1247,7 @@
         <v>INSERT INTO  VALUES (14,'Kilo Caloria','kcal','Energía');</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1236,7 +1266,7 @@
         <v>INSERT INTO  VALUES (15,'Kilo watt - hr','kWh','Energía');</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1255,7 +1285,7 @@
         <v>INSERT INTO  VALUES (16,'Unidad térmica inglesa','BTU','Energía');</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1274,7 +1304,7 @@
         <v>INSERT INTO  VALUES (17,'Centímetro','cm','Longitud');</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1293,7 +1323,7 @@
         <v>INSERT INTO  VALUES (18,'Decímetro','dm','Longitud');</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1312,7 +1342,7 @@
         <v>INSERT INTO  VALUES (19,'Kilómetro','km','Longitud');</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1331,7 +1361,7 @@
         <v>INSERT INTO  VALUES (20,'Metro','m','Longitud');</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1350,7 +1380,7 @@
         <v>INSERT INTO  VALUES (21,'Milímetro','mm','Longitud');</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1369,7 +1399,7 @@
         <v>INSERT INTO  VALUES (22,'Dólar USA','USD','Moneda');</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1388,7 +1418,7 @@
         <v>INSERT INTO  VALUES (23,'Euro','EUR','Moneda');</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1407,7 +1437,7 @@
         <v>INSERT INTO  VALUES (24,'Libra británica','GBP','Moneda');</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1426,7 +1456,7 @@
         <v>INSERT INTO  VALUES (25,'Peso chileno','CLP','Moneda');</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1445,7 +1475,7 @@
         <v>INSERT INTO  VALUES (26,'Yen japonés','JPY','Moneda');</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1464,7 +1494,7 @@
         <v>INSERT INTO  VALUES (27,'Gramo','g','Peso');</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1483,7 +1513,7 @@
         <v>INSERT INTO  VALUES (28,'Kilogramo','kg','Peso');</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1502,7 +1532,7 @@
         <v>INSERT INTO  VALUES (29,'Miligramo','mg','Peso');</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1521,7 +1551,7 @@
         <v>INSERT INTO  VALUES (30,'Tonelada','t','Peso');</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1540,7 +1570,7 @@
         <v>INSERT INTO  VALUES (31,'Horse Power','hp','Potencia');</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1559,7 +1589,7 @@
         <v>INSERT INTO  VALUES (32,'Kilovatio','kW','Potencia');</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1578,7 +1608,7 @@
         <v>INSERT INTO  VALUES (33,'Vatio','W','Potencia');</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1597,7 +1627,7 @@
         <v>INSERT INTO  VALUES (34,'centímetro cuadrado','cm²','Superficie');</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1616,7 +1646,7 @@
         <v>INSERT INTO  VALUES (35,'hectárea','ha','Superficie');</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1635,7 +1665,7 @@
         <v>INSERT INTO  VALUES (36,'kilómetro cuadrado','km²','Superficie');</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1654,7 +1684,7 @@
         <v>INSERT INTO  VALUES (37,'metro cuadrado','m²','Superficie');</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1673,7 +1703,7 @@
         <v>INSERT INTO  VALUES (38,'milímetro cuadrado','mm²','Superficie');</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1692,7 +1722,7 @@
         <v>INSERT INTO  VALUES (39,'Celsius','°C','Temperatura');</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1711,7 +1741,7 @@
         <v>INSERT INTO  VALUES (40,'Kelvin','°K','Temperatura');</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1730,7 +1760,7 @@
         <v>INSERT INTO  VALUES (41,'Año','Año','Tiempo');</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1749,7 +1779,7 @@
         <v>INSERT INTO  VALUES (42,'Bienio','Bienio','Tiempo');</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1768,7 +1798,7 @@
         <v>INSERT INTO  VALUES (43,'Década','Década','Tiempo');</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1787,7 +1817,7 @@
         <v>INSERT INTO  VALUES (44,'Día','Día','Tiempo');</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -1806,7 +1836,7 @@
         <v>INSERT INTO  VALUES (45,'Hora','h','Tiempo');</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -1825,7 +1855,7 @@
         <v>INSERT INTO  VALUES (46,'Lustro','Lustro','Tiempo');</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -1844,7 +1874,7 @@
         <v>INSERT INTO  VALUES (47,'Mes','Mes','Tiempo');</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -1863,7 +1893,7 @@
         <v>INSERT INTO  VALUES (48,'Minuto','min','Tiempo');</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1882,7 +1912,7 @@
         <v>INSERT INTO  VALUES (49,'Quincena','Quincena','Tiempo');</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -1901,7 +1931,7 @@
         <v>INSERT INTO  VALUES (50,'Segundo','s','Tiempo');</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -1920,7 +1950,7 @@
         <v>INSERT INTO  VALUES (51,'Semana','Semana','Tiempo');</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -1939,7 +1969,7 @@
         <v>INSERT INTO  VALUES (52,'Semestre','Semestre','Tiempo');</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -1958,7 +1988,7 @@
         <v>INSERT INTO  VALUES (53,'Trienio','Trienio','Tiempo');</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -1977,7 +2007,7 @@
         <v>INSERT INTO  VALUES (54,'Trimestre','Trimestre','Tiempo');</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -1996,7 +2026,7 @@
         <v>INSERT INTO  VALUES (55,'Kilometro por hora','km/h','Velocidad');</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2015,7 +2045,7 @@
         <v>INSERT INTO  VALUES (56,'Kilometro por segundo','km/s','Velocidad');</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2034,7 +2064,7 @@
         <v>INSERT INTO  VALUES (57,'Metro por segundo','m/s','Velocidad');</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2053,7 +2083,7 @@
         <v>INSERT INTO  VALUES (58,'Centímetro cúbico','cm³','Volumen');</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2072,7 +2102,7 @@
         <v>INSERT INTO  VALUES (59,'Litro','l','Volumen');</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2091,7 +2121,7 @@
         <v>INSERT INTO  VALUES (60,'Metro cúbico','m³','Volumen');</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2110,7 +2140,7 @@
         <v>INSERT INTO  VALUES (61,'Mililitro','ml','Volumen');</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -2129,7 +2159,7 @@
         <v>INSERT INTO  VALUES (62,'candidatos','candidatos','Unidad');</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -2148,7 +2178,7 @@
         <v>INSERT INTO  VALUES (63,'empresas','empresas','Unidad');</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -2167,7 +2197,7 @@
         <v>INSERT INTO  VALUES (64,'habitantes','habitantes','Unidad');</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <f>+A65+1</f>
         <v>65</v>
@@ -2186,7 +2216,7 @@
         <v>INSERT INTO  VALUES (65,'unidades','unidades','Unidad');</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2204,7 +2234,7 @@
         <v>INSERT INTO  VALUES (66,'votos','votos','Unidad');</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2222,7 +2252,7 @@
         <v>INSERT INTO  VALUES (67,'empleados','empleados','Unidad');</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2240,7 +2270,7 @@
         <v>INSERT INTO  VALUES (68,'múltiples','multiples','Unidad');</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2258,7 +2288,7 @@
         <v>INSERT INTO  VALUES (69,'establecimientos','establecimientos','Unidad');</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2276,7 +2306,7 @@
         <v>INSERT INTO  VALUES (70,'Peso chileno por kilogramo','$/kg','Precio');</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2294,7 +2324,7 @@
         <v>INSERT INTO  VALUES (71,'Dólares por tonelada','USD/t','Precio');</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2312,7 +2342,7 @@
         <v>INSERT INTO  VALUES (72,'quintales métricos por hectárea','qqm/ha','Economía');</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2330,7 +2360,7 @@
         <v>INSERT INTO  VALUES (73,'casos','casos','Unidad');</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2348,7 +2378,7 @@
         <v>INSERT INTO  VALUES (74,'víctimas','víctimas','Unidad');</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2364,6 +2394,60 @@
       <c r="E76" s="3" t="str">
         <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A76&amp;","&amp;"'"&amp;B76&amp;"','"&amp;C76&amp;"','"&amp;D76&amp;"');"</f>
         <v>INSERT INTO  VALUES (75,'centros','centros','Unidad');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77" t="s">
+        <v>150</v>
+      </c>
+      <c r="E77" s="3" t="str">
+        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A77&amp;","&amp;"'"&amp;B77&amp;"','"&amp;C77&amp;"','"&amp;D77&amp;"');"</f>
+        <v>INSERT INTO  VALUES (76,'porcentaje','%','Relativo');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D78" t="s">
+        <v>150</v>
+      </c>
+      <c r="E78" s="3" t="str">
+        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A78&amp;","&amp;"'"&amp;B78&amp;"','"&amp;C78&amp;"','"&amp;D78&amp;"');"</f>
+        <v>INSERT INTO  VALUES (77,'tasa por 100 mil habitantes','frecuencia/100 mil habitantes','Relativo');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" t="s">
+        <v>154</v>
+      </c>
+      <c r="D79" t="s">
+        <v>150</v>
+      </c>
+      <c r="E79" s="3" t="str">
+        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A79&amp;","&amp;"'"&amp;B79&amp;"','"&amp;C79&amp;"','"&amp;D79&amp;"');"</f>
+        <v>INSERT INTO  VALUES (78,'tasa por 1 millón habitantes','frecuencia/1.000.000 habitantes','Relativo');</v>
       </c>
     </row>
   </sheetData>

--- a/000 TABLAS GENERALES/UnidadMedida.xlsx
+++ b/000 TABLAS GENERALES/UnidadMedida.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinamario/DATA INTELLIGENCE Dropbox/Diseño DATA's/DATA-COMUN/000 TABLAS GENERALES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CDAF34-84DF-460D-AB35-5E0AFE401CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640C3F4F-9863-7447-A3B5-303004674298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3767A57E-79CC-47CE-93B6-1CB5531CD4E5}"/>
+    <workbookView xWindow="-100" yWindow="500" windowWidth="23260" windowHeight="12720" xr2:uid="{3767A57E-79CC-47CE-93B6-1CB5531CD4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>frecuencia/1.000.000 habitantes</t>
+  </si>
+  <si>
+    <t>atenciones médicas</t>
   </si>
 </sst>
 </file>
@@ -637,8 +640,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{834C1544-0530-4BED-A188-975CB7996820}" name="unidad_medida" displayName="unidad_medida" ref="A1:E79" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:E79" xr:uid="{0E1D4E17-391D-4729-84D4-B8951EAFC938}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{834C1544-0530-4BED-A188-975CB7996820}" name="unidad_medida" displayName="unidad_medida" ref="A1:E80" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:E80" xr:uid="{0E1D4E17-391D-4729-84D4-B8951EAFC938}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{1895193C-2CDA-46CE-98C2-C7742CE3B74F}" name="id"/>
     <tableColumn id="1" xr3:uid="{BE2FC621-1AFD-4ACE-A057-9C7AC05880C9}" name="nombre"/>
@@ -949,23 +952,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9076BD3C-2350-42C7-BCB4-34951020C443}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -982,7 +985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>INSERT INTO  VALUES (1,'Litros por hora','l/h','Caudal');</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>+A2+1</f>
         <v>2</v>
@@ -1019,7 +1022,7 @@
         <v>INSERT INTO  VALUES (2,'Litros por segundo','l/s','Caudal');</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A65" si="1">+A3+1</f>
         <v>3</v>
@@ -1038,7 +1041,7 @@
         <v>INSERT INTO  VALUES (3,'Metros cúbicos por hora','m³/h','Caudal');</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1057,7 +1060,7 @@
         <v>INSERT INTO  VALUES (4,'Metros cúbicos por segundo','m³/s','Caudal');</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1076,7 +1079,7 @@
         <v>INSERT INTO  VALUES (5,'Gramo por centímetro cúbico','g/cm³','Densidad');</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1095,7 +1098,7 @@
         <v>INSERT INTO  VALUES (6,'Gramo por metro cúbico','g/m³','Densidad');</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1114,7 +1117,7 @@
         <v>INSERT INTO  VALUES (7,'Habitantes por km2','habitantes/km2','Densidad');</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1133,7 +1136,7 @@
         <v>INSERT INTO  VALUES (8,'Kilogramo por metro cúbico','kg/m³','Densidad');</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1152,7 +1155,7 @@
         <v>INSERT INTO  VALUES (9,'Miligramo por metro cúbico','mg/m³','Densidad');</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1171,7 +1174,7 @@
         <v>INSERT INTO  VALUES (10,'Peso por kilogramo','CLP/kg','Economía');</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1190,7 +1193,7 @@
         <v>INSERT INTO  VALUES (11,'Peso por tonelada','CLP/t','Economía');</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1209,7 +1212,7 @@
         <v>INSERT INTO  VALUES (12,'por persona','per capita','Economía');</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1228,7 +1231,7 @@
         <v>INSERT INTO  VALUES (13,'USD por tonelada','USD/t','Economía');</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1247,7 +1250,7 @@
         <v>INSERT INTO  VALUES (14,'Kilo Caloria','kcal','Energía');</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1266,7 +1269,7 @@
         <v>INSERT INTO  VALUES (15,'Kilo watt - hr','kWh','Energía');</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1285,7 +1288,7 @@
         <v>INSERT INTO  VALUES (16,'Unidad térmica inglesa','BTU','Energía');</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1304,7 +1307,7 @@
         <v>INSERT INTO  VALUES (17,'Centímetro','cm','Longitud');</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1323,7 +1326,7 @@
         <v>INSERT INTO  VALUES (18,'Decímetro','dm','Longitud');</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1342,7 +1345,7 @@
         <v>INSERT INTO  VALUES (19,'Kilómetro','km','Longitud');</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1361,7 +1364,7 @@
         <v>INSERT INTO  VALUES (20,'Metro','m','Longitud');</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1380,7 +1383,7 @@
         <v>INSERT INTO  VALUES (21,'Milímetro','mm','Longitud');</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1399,7 +1402,7 @@
         <v>INSERT INTO  VALUES (22,'Dólar USA','USD','Moneda');</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1418,7 +1421,7 @@
         <v>INSERT INTO  VALUES (23,'Euro','EUR','Moneda');</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1437,7 +1440,7 @@
         <v>INSERT INTO  VALUES (24,'Libra británica','GBP','Moneda');</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1456,7 +1459,7 @@
         <v>INSERT INTO  VALUES (25,'Peso chileno','CLP','Moneda');</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1475,7 +1478,7 @@
         <v>INSERT INTO  VALUES (26,'Yen japonés','JPY','Moneda');</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1494,7 +1497,7 @@
         <v>INSERT INTO  VALUES (27,'Gramo','g','Peso');</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1513,7 +1516,7 @@
         <v>INSERT INTO  VALUES (28,'Kilogramo','kg','Peso');</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1532,7 +1535,7 @@
         <v>INSERT INTO  VALUES (29,'Miligramo','mg','Peso');</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1551,7 +1554,7 @@
         <v>INSERT INTO  VALUES (30,'Tonelada','t','Peso');</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1570,7 +1573,7 @@
         <v>INSERT INTO  VALUES (31,'Horse Power','hp','Potencia');</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1589,7 +1592,7 @@
         <v>INSERT INTO  VALUES (32,'Kilovatio','kW','Potencia');</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1608,7 +1611,7 @@
         <v>INSERT INTO  VALUES (33,'Vatio','W','Potencia');</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1627,7 +1630,7 @@
         <v>INSERT INTO  VALUES (34,'centímetro cuadrado','cm²','Superficie');</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1646,7 +1649,7 @@
         <v>INSERT INTO  VALUES (35,'hectárea','ha','Superficie');</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1665,7 +1668,7 @@
         <v>INSERT INTO  VALUES (36,'kilómetro cuadrado','km²','Superficie');</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1684,7 +1687,7 @@
         <v>INSERT INTO  VALUES (37,'metro cuadrado','m²','Superficie');</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1703,7 +1706,7 @@
         <v>INSERT INTO  VALUES (38,'milímetro cuadrado','mm²','Superficie');</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1722,7 +1725,7 @@
         <v>INSERT INTO  VALUES (39,'Celsius','°C','Temperatura');</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1741,7 +1744,7 @@
         <v>INSERT INTO  VALUES (40,'Kelvin','°K','Temperatura');</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1760,7 +1763,7 @@
         <v>INSERT INTO  VALUES (41,'Año','Año','Tiempo');</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1779,7 +1782,7 @@
         <v>INSERT INTO  VALUES (42,'Bienio','Bienio','Tiempo');</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1798,7 +1801,7 @@
         <v>INSERT INTO  VALUES (43,'Década','Década','Tiempo');</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1817,7 +1820,7 @@
         <v>INSERT INTO  VALUES (44,'Día','Día','Tiempo');</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -1836,7 +1839,7 @@
         <v>INSERT INTO  VALUES (45,'Hora','h','Tiempo');</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -1855,7 +1858,7 @@
         <v>INSERT INTO  VALUES (46,'Lustro','Lustro','Tiempo');</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -1874,7 +1877,7 @@
         <v>INSERT INTO  VALUES (47,'Mes','Mes','Tiempo');</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -1893,7 +1896,7 @@
         <v>INSERT INTO  VALUES (48,'Minuto','min','Tiempo');</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1912,7 +1915,7 @@
         <v>INSERT INTO  VALUES (49,'Quincena','Quincena','Tiempo');</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -1931,7 +1934,7 @@
         <v>INSERT INTO  VALUES (50,'Segundo','s','Tiempo');</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -1950,7 +1953,7 @@
         <v>INSERT INTO  VALUES (51,'Semana','Semana','Tiempo');</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -1969,7 +1972,7 @@
         <v>INSERT INTO  VALUES (52,'Semestre','Semestre','Tiempo');</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -1988,7 +1991,7 @@
         <v>INSERT INTO  VALUES (53,'Trienio','Trienio','Tiempo');</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2007,7 +2010,7 @@
         <v>INSERT INTO  VALUES (54,'Trimestre','Trimestre','Tiempo');</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2026,7 +2029,7 @@
         <v>INSERT INTO  VALUES (55,'Kilometro por hora','km/h','Velocidad');</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2045,7 +2048,7 @@
         <v>INSERT INTO  VALUES (56,'Kilometro por segundo','km/s','Velocidad');</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2064,7 +2067,7 @@
         <v>INSERT INTO  VALUES (57,'Metro por segundo','m/s','Velocidad');</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2083,7 +2086,7 @@
         <v>INSERT INTO  VALUES (58,'Centímetro cúbico','cm³','Volumen');</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2102,7 +2105,7 @@
         <v>INSERT INTO  VALUES (59,'Litro','l','Volumen');</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2121,7 +2124,7 @@
         <v>INSERT INTO  VALUES (60,'Metro cúbico','m³','Volumen');</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2140,7 +2143,7 @@
         <v>INSERT INTO  VALUES (61,'Mililitro','ml','Volumen');</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -2159,7 +2162,7 @@
         <v>INSERT INTO  VALUES (62,'candidatos','candidatos','Unidad');</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -2178,7 +2181,7 @@
         <v>INSERT INTO  VALUES (63,'empresas','empresas','Unidad');</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -2197,7 +2200,7 @@
         <v>INSERT INTO  VALUES (64,'habitantes','habitantes','Unidad');</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <f>+A65+1</f>
         <v>65</v>
@@ -2216,7 +2219,7 @@
         <v>INSERT INTO  VALUES (65,'unidades','unidades','Unidad');</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>INSERT INTO  VALUES (66,'votos','votos','Unidad');</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>INSERT INTO  VALUES (67,'empleados','empleados','Unidad');</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2270,7 +2273,7 @@
         <v>INSERT INTO  VALUES (68,'múltiples','multiples','Unidad');</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>INSERT INTO  VALUES (69,'establecimientos','establecimientos','Unidad');</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>INSERT INTO  VALUES (70,'Peso chileno por kilogramo','$/kg','Precio');</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2324,7 +2327,7 @@
         <v>INSERT INTO  VALUES (71,'Dólares por tonelada','USD/t','Precio');</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2338,11 +2341,11 @@
         <v>23</v>
       </c>
       <c r="E73" s="3" t="str">
-        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A73&amp;","&amp;"'"&amp;B73&amp;"','"&amp;C73&amp;"','"&amp;D73&amp;"');"</f>
+        <f t="shared" ref="E73:E79" si="4">+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A73&amp;","&amp;"'"&amp;B73&amp;"','"&amp;C73&amp;"','"&amp;D73&amp;"');"</f>
         <v>INSERT INTO  VALUES (72,'quintales métricos por hectárea','qqm/ha','Economía');</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2356,11 +2359,11 @@
         <v>31</v>
       </c>
       <c r="E74" s="3" t="str">
-        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A74&amp;","&amp;"'"&amp;B74&amp;"','"&amp;C74&amp;"','"&amp;D74&amp;"');"</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO  VALUES (73,'casos','casos','Unidad');</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2374,11 +2377,11 @@
         <v>31</v>
       </c>
       <c r="E75" s="3" t="str">
-        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A75&amp;","&amp;"'"&amp;B75&amp;"','"&amp;C75&amp;"','"&amp;D75&amp;"');"</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO  VALUES (74,'víctimas','víctimas','Unidad');</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2392,11 +2395,11 @@
         <v>31</v>
       </c>
       <c r="E76" s="3" t="str">
-        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A76&amp;","&amp;"'"&amp;B76&amp;"','"&amp;C76&amp;"','"&amp;D76&amp;"');"</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO  VALUES (75,'centros','centros','Unidad');</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2410,11 +2413,11 @@
         <v>150</v>
       </c>
       <c r="E77" s="3" t="str">
-        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A77&amp;","&amp;"'"&amp;B77&amp;"','"&amp;C77&amp;"','"&amp;D77&amp;"');"</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO  VALUES (76,'porcentaje','%','Relativo');</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2428,11 +2431,11 @@
         <v>150</v>
       </c>
       <c r="E78" s="3" t="str">
-        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A78&amp;","&amp;"'"&amp;B78&amp;"','"&amp;C78&amp;"','"&amp;D78&amp;"');"</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO  VALUES (77,'tasa por 100 mil habitantes','frecuencia/100 mil habitantes','Relativo');</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2446,8 +2449,26 @@
         <v>150</v>
       </c>
       <c r="E79" s="3" t="str">
-        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A79&amp;","&amp;"'"&amp;B79&amp;"','"&amp;C79&amp;"','"&amp;D79&amp;"');"</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO  VALUES (78,'tasa por 1 millón habitantes','frecuencia/1.000.000 habitantes','Relativo');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" t="s">
+        <v>155</v>
+      </c>
+      <c r="D80" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="3" t="str">
+        <f>+"INSERT INTO "&amp;$F$2&amp;" VALUES ("&amp;A80&amp;","&amp;"'"&amp;B80&amp;"','"&amp;C80&amp;"','"&amp;D80&amp;"');"</f>
+        <v>INSERT INTO  VALUES (79,'atenciones médicas','atenciones médicas','Unidad');</v>
       </c>
     </row>
   </sheetData>
